--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 20,59</t>
+          <t>-4,72; 21,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 21,85</t>
+          <t>-3,71; 22,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,34; 50,18</t>
+          <t>24,33; 49,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 27,49</t>
+          <t>0,44; 28,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 33,85</t>
+          <t>8,73; 33,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 38,02</t>
+          <t>16,51; 38,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 20,43</t>
+          <t>0,76; 20,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 24,06</t>
+          <t>6,16; 24,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,82; 41,16</t>
+          <t>23,14; 40,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 75,19</t>
+          <t>-12,58; 79,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 79,31</t>
+          <t>-9,27; 83,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,55; 201,59</t>
+          <t>61,19; 198,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 91,59</t>
+          <t>1,08; 96,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 121,98</t>
+          <t>20,43; 113,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,28; 135,5</t>
+          <t>36,28; 136,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 70,28</t>
+          <t>2,19; 67,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 81,94</t>
+          <t>15,63; 82,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,82; 146,58</t>
+          <t>59,81; 140,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 12,72</t>
+          <t>0,65; 11,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,29</t>
+          <t>-1,07; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,48; 41,53</t>
+          <t>30,58; 41,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 9,26</t>
+          <t>-1,96; 9,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,38</t>
+          <t>-1,08; 11,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 31,82</t>
+          <t>19,92; 31,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,61</t>
+          <t>0,87; 9,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,19</t>
+          <t>1,4; 9,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 34,47</t>
+          <t>26,74; 34,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 37,53</t>
+          <t>1,71; 35,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 33,07</t>
+          <t>-2,79; 31,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 125,84</t>
+          <t>76,35; 124,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 22,2</t>
+          <t>-4,03; 22,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 27,42</t>
+          <t>-2,59; 25,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,48; 76,56</t>
+          <t>40,7; 73,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 24,46</t>
+          <t>2,02; 23,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 23,83</t>
+          <t>3,14; 23,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 89,39</t>
+          <t>61,83; 89,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,72</t>
+          <t>-1,91; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,09</t>
+          <t>-0,37; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,44; 44,15</t>
+          <t>35,01; 44,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,71</t>
+          <t>-2,64; 7,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,69</t>
+          <t>-3,82; 5,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,79; 23,73</t>
+          <t>15,62; 23,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,13</t>
+          <t>-0,55; 5,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,0</t>
+          <t>-0,33; 6,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,25; 32,8</t>
+          <t>26,24; 32,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 19,98</t>
+          <t>-5,08; 20,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 26,55</t>
+          <t>-0,89; 25,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,78; 131,27</t>
+          <t>89,16; 129,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 14,13</t>
+          <t>-5,19; 14,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 12,28</t>
+          <t>-7,32; 11,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 51,36</t>
+          <t>30,25; 51,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 12,38</t>
+          <t>-1,19; 13,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 14,46</t>
+          <t>-0,72; 15,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 79,43</t>
+          <t>58,32; 79,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 5,25</t>
+          <t>-6,23; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,14</t>
+          <t>-8,42; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,8; 40,94</t>
+          <t>30,41; 41,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,3</t>
+          <t>-9,06; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -1,34</t>
+          <t>-11,37; -1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 35,7</t>
+          <t>21,18; 36,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,91</t>
+          <t>-5,77; 2,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,32</t>
+          <t>-8,26; -1,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,0; 36,97</t>
+          <t>27,77; 36,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 14,0</t>
+          <t>-14,47; 12,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 5,56</t>
+          <t>-18,76; 6,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,02; 111,51</t>
+          <t>71,03; 111,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,66</t>
+          <t>-16,5; 4,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -2,7</t>
+          <t>-21,01; -2,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,18; 70,55</t>
+          <t>38,49; 71,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 4,38</t>
+          <t>-12,08; 5,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -0,57</t>
+          <t>-17,15; -2,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>57,97; 83,98</t>
+          <t>56,99; 82,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,15</t>
+          <t>0,26; 9,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,79</t>
+          <t>0,36; 9,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 42,17</t>
+          <t>33,63; 41,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,73</t>
+          <t>-4,02; 4,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,13</t>
+          <t>-2,96; 5,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,72; 22,09</t>
+          <t>13,48; 21,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,64</t>
+          <t>-0,83; 6,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,29</t>
+          <t>-0,03; 6,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,51; 30,55</t>
+          <t>23,78; 30,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 25,09</t>
+          <t>0,66; 25,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,43; 26,39</t>
+          <t>1,05; 25,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,49; 117,3</t>
+          <t>81,67; 116,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 9,85</t>
+          <t>-7,65; 9,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 12,59</t>
+          <t>-5,56; 11,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,79; 46,02</t>
+          <t>25,69; 45,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 12,91</t>
+          <t>-1,74; 14,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 14,42</t>
+          <t>-0,03; 15,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>52,29; 70,87</t>
+          <t>50,93; 69,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,97</t>
+          <t>0,98; 5,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>0,83; 5,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,83</t>
+          <t>35,23; 39,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,49</t>
+          <t>-1,2; 3,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,31</t>
+          <t>-1,33; 3,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,51</t>
+          <t>19,75; 25,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,93</t>
+          <t>0,56; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,82</t>
+          <t>0,4; 4,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,63</t>
+          <t>27,95; 31,69</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,38</t>
+          <t>2,57; 15,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,3</t>
+          <t>2,27; 15,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>89,15; 109,05</t>
+          <t>89,68; 109,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,4</t>
+          <t>-2,37; 7,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,92</t>
+          <t>-2,64; 7,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>39,4; 53,65</t>
+          <t>39,06; 53,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,19</t>
+          <t>1,21; 9,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,0</t>
+          <t>0,87; 9,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>62,92; 74,0</t>
+          <t>62,54; 74,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 21,4</t>
+          <t>-4,04; 21,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 22,38</t>
+          <t>-3,15; 21,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 49,19</t>
+          <t>24,42; 50,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 28,08</t>
+          <t>1,13; 27,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 33,05</t>
+          <t>8,56; 34,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 38,31</t>
+          <t>16,04; 37,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 20,04</t>
+          <t>2,39; 20,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 24,67</t>
+          <t>7,11; 24,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,14; 40,45</t>
+          <t>23,95; 40,01</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 79,8</t>
+          <t>-10,19; 78,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 83,22</t>
+          <t>-8,09; 81,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,19; 198,03</t>
+          <t>62,92; 207,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 96,09</t>
+          <t>3,32; 98,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,43; 113,37</t>
+          <t>21,01; 120,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,28; 136,95</t>
+          <t>36,89; 130,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 67,2</t>
+          <t>6,29; 70,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 82,3</t>
+          <t>18,23; 80,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,81; 140,91</t>
+          <t>59,92; 137,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 11,9</t>
+          <t>1,23; 12,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,54</t>
+          <t>-0,79; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,58; 41,55</t>
+          <t>30,48; 41,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 9,47</t>
+          <t>-2,54; 9,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 11,05</t>
+          <t>-0,93; 11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 31,03</t>
+          <t>20,06; 31,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,05</t>
+          <t>1,08; 9,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 9,17</t>
+          <t>1,06; 9,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,74; 34,56</t>
+          <t>26,66; 34,85</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 35,29</t>
+          <t>3,2; 37,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 31,5</t>
+          <t>-2,3; 32,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,35; 124,04</t>
+          <t>78,61; 126,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 22,95</t>
+          <t>-5,36; 22,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 25,93</t>
+          <t>-1,63; 27,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,7; 73,92</t>
+          <t>41,21; 74,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 23,28</t>
+          <t>2,45; 24,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 23,28</t>
+          <t>2,52; 24,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,83; 89,61</t>
+          <t>62,0; 91,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,03</t>
+          <t>-2,5; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,64</t>
+          <t>-0,21; 8,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,01; 44,19</t>
+          <t>34,29; 44,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,01</t>
+          <t>-2,58; 6,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,31</t>
+          <t>-3,21; 5,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,62; 23,89</t>
+          <t>15,51; 23,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,61</t>
+          <t>-0,78; 5,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,08</t>
+          <t>-0,53; 5,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,24; 32,86</t>
+          <t>26,41; 33,11</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 20,7</t>
+          <t>-6,17; 19,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 25,29</t>
+          <t>-0,56; 25,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,16; 129,82</t>
+          <t>87,44; 131,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 14,72</t>
+          <t>-4,99; 13,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 11,3</t>
+          <t>-6,2; 12,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,25; 51,43</t>
+          <t>29,99; 50,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 13,63</t>
+          <t>-1,77; 13,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 15,11</t>
+          <t>-1,17; 14,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,32; 79,47</t>
+          <t>59,18; 80,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,64</t>
+          <t>-5,91; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 2,33</t>
+          <t>-7,82; 2,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,41; 41,16</t>
+          <t>30,87; 41,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 2,04</t>
+          <t>-8,52; 2,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -1,11</t>
+          <t>-11,78; -1,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,18; 36,05</t>
+          <t>21,72; 35,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,27</t>
+          <t>-5,68; 2,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; -1,08</t>
+          <t>-8,71; -0,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,77; 36,46</t>
+          <t>27,92; 36,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 12,45</t>
+          <t>-13,62; 13,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 6,58</t>
+          <t>-18,2; 6,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,03; 111,3</t>
+          <t>70,9; 114,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 4,58</t>
+          <t>-15,66; 4,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -2,4</t>
+          <t>-21,62; -2,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,49; 71,27</t>
+          <t>40,42; 71,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 5,14</t>
+          <t>-11,85; 4,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -2,39</t>
+          <t>-18,32; -2,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,99; 82,1</t>
+          <t>56,9; 82,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,29</t>
+          <t>0,22; 9,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,26</t>
+          <t>0,87; 9,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,63; 41,88</t>
+          <t>33,4; 41,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,51</t>
+          <t>-3,6; 5,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,72</t>
+          <t>-2,7; 5,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,48; 21,82</t>
+          <t>13,54; 22,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,0</t>
+          <t>-0,83; 5,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,36</t>
+          <t>-0,22; 6,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,78; 30,19</t>
+          <t>23,89; 30,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,66; 25,44</t>
+          <t>0,55; 25,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,05; 25,07</t>
+          <t>2,11; 26,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>81,67; 116,41</t>
+          <t>81,26; 115,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 9,3</t>
+          <t>-6,74; 10,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 11,83</t>
+          <t>-5,03; 12,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,69; 45,16</t>
+          <t>25,83; 46,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 14,07</t>
+          <t>-1,76; 12,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 15,01</t>
+          <t>-0,48; 14,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>50,93; 69,85</t>
+          <t>51,44; 70,44</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,75</t>
+          <t>0,82; 5,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,43</t>
+          <t>0,8; 5,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,23; 39,82</t>
+          <t>35,13; 39,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,6</t>
+          <t>-1,12; 3,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,37</t>
+          <t>-1,4; 3,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,5</t>
+          <t>19,9; 25,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,94</t>
+          <t>0,51; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,04</t>
+          <t>0,39; 3,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>27,95; 31,69</t>
+          <t>27,81; 31,62</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,57; 15,78</t>
+          <t>2,06; 15,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,08</t>
+          <t>2,2; 15,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>89,68; 109,73</t>
+          <t>89,77; 109,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,52</t>
+          <t>-2,23; 7,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,06</t>
+          <t>-2,77; 7,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>39,06; 53,13</t>
+          <t>39,25; 52,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,24</t>
+          <t>1,15; 9,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,43</t>
+          <t>0,93; 8,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>62,54; 74,09</t>
+          <t>62,32; 74,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 21,18</t>
+          <t>-5,48; 20,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 21,43</t>
+          <t>-2,24; 21,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 50,19</t>
+          <t>24,34; 50,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 27,68</t>
+          <t>1,49; 27,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 34,3</t>
+          <t>8,84; 33,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 37,99</t>
+          <t>16,66; 38,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 20,71</t>
+          <t>2,13; 20,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 24,65</t>
+          <t>6,59; 24,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 40,01</t>
+          <t>23,82; 41,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 78,4</t>
+          <t>-13,85; 75,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 81,23</t>
+          <t>-6,84; 79,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,92; 207,23</t>
+          <t>59,55; 201,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 98,86</t>
+          <t>3,61; 91,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 120,06</t>
+          <t>22,26; 121,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,89; 130,44</t>
+          <t>37,28; 135,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 70,24</t>
+          <t>5,39; 70,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 80,4</t>
+          <t>17,19; 81,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,92; 137,44</t>
+          <t>61,82; 146,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 12,5</t>
+          <t>0,54; 12,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 11,26</t>
+          <t>-0,78; 11,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,48; 41,45</t>
+          <t>30,48; 41,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 9,67</t>
+          <t>-2,16; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 11,23</t>
+          <t>-0,31; 11,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 31,31</t>
+          <t>19,95; 31,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,7</t>
+          <t>1,28; 9,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,45</t>
+          <t>1,01; 9,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,66; 34,85</t>
+          <t>26,61; 34,47</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 37,24</t>
+          <t>1,23; 37,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 32,88</t>
+          <t>-2,31; 33,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,61; 126,24</t>
+          <t>76,99; 125,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 22,96</t>
+          <t>-4,18; 22,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 27,14</t>
+          <t>-0,61; 27,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,21; 74,42</t>
+          <t>40,48; 76,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 24,77</t>
+          <t>2,88; 24,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 24,46</t>
+          <t>2,37; 23,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,0; 91,01</t>
+          <t>61,67; 89,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,65</t>
+          <t>-1,93; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,86</t>
+          <t>-0,21; 9,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,29; 44,55</t>
+          <t>34,44; 44,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 6,74</t>
+          <t>-2,55; 6,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 5,67</t>
+          <t>-3,87; 5,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,51; 23,48</t>
+          <t>15,79; 23,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,42</t>
+          <t>-0,92; 5,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,82</t>
+          <t>-0,33; 6,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,41; 33,11</t>
+          <t>26,25; 32,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 19,1</t>
+          <t>-4,81; 19,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 25,88</t>
+          <t>-0,55; 26,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,44; 131,8</t>
+          <t>88,78; 131,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 13,86</t>
+          <t>-4,76; 14,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 12,13</t>
+          <t>-7,56; 12,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,99; 50,75</t>
+          <t>30,15; 51,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 13,12</t>
+          <t>-2,15; 12,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 14,09</t>
+          <t>-0,79; 14,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,18; 80,18</t>
+          <t>58,41; 79,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 4,88</t>
+          <t>-5,48; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,57</t>
+          <t>-8,51; 2,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,87; 41,57</t>
+          <t>30,8; 40,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,19</t>
+          <t>-8,51; 2,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -1,2</t>
+          <t>-11,65; -1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,72; 35,04</t>
+          <t>21,79; 35,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 2,12</t>
+          <t>-5,68; 1,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,92</t>
+          <t>-7,83; -0,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,92; 36,49</t>
+          <t>28,0; 36,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 13,17</t>
+          <t>-12,93; 14,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 6,81</t>
+          <t>-19,86; 5,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,9; 114,75</t>
+          <t>71,02; 111,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 4,55</t>
+          <t>-15,53; 4,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -2,71</t>
+          <t>-21,37; -2,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,42; 71,69</t>
+          <t>40,18; 70,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 4,85</t>
+          <t>-11,84; 4,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,32; -2,13</t>
+          <t>-16,46; -0,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,9; 82,14</t>
+          <t>57,97; 83,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,1</t>
+          <t>-0,04; 9,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,55</t>
+          <t>1,07; 9,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,4; 41,64</t>
+          <t>32,8; 42,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,18</t>
+          <t>-3,97; 4,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,96</t>
+          <t>-2,8; 6,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,54; 22,2</t>
+          <t>13,72; 22,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,23</t>
+          <t>-0,86; 5,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 6,53</t>
+          <t>-0,19; 6,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,27</t>
+          <t>24,51; 30,55</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,55; 25,64</t>
+          <t>-0,11; 25,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,11; 26,47</t>
+          <t>2,43; 26,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>81,26; 115,93</t>
+          <t>79,49; 117,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 10,51</t>
+          <t>-7,48; 9,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 12,37</t>
+          <t>-5,26; 12,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,83; 46,05</t>
+          <t>25,79; 46,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 12,02</t>
+          <t>-1,92; 12,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 14,96</t>
+          <t>-0,4; 14,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>51,44; 70,44</t>
+          <t>52,29; 70,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,71</t>
+          <t>0,93; 5,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,52</t>
+          <t>0,5; 5,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,13; 39,83</t>
+          <t>35,07; 39,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,69</t>
+          <t>-1,32; 3,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,63</t>
+          <t>-1,64; 3,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,27</t>
+          <t>19,77; 25,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,94</t>
+          <t>0,47; 3,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,76</t>
+          <t>0,4; 3,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>27,81; 31,62</t>
+          <t>28,04; 31,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,58</t>
+          <t>2,42; 16,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,2; 15,1</t>
+          <t>1,32; 15,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>89,77; 109,18</t>
+          <t>89,15; 109,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,71</t>
+          <t>-2,61; 7,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,74</t>
+          <t>-3,22; 6,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>39,25; 52,63</t>
+          <t>39,4; 53,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,26</t>
+          <t>1,07; 9,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,83</t>
+          <t>0,94; 9,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>62,32; 74,46</t>
+          <t>62,92; 74,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,5</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,55</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,57</t>
+          <t>-17,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,08</t>
+          <t>-10,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 20,59</t>
+          <t>5,94; 16,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 21,85</t>
+          <t>-1,45; 9,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,34; 50,18</t>
+          <t>-9,2; 1,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 27,49</t>
+          <t>1,03; 11,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 33,85</t>
+          <t>-2,92; 7,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 38,02</t>
+          <t>-26,76; -11,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 20,43</t>
+          <t>5,68; 12,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 24,06</t>
+          <t>-0,2; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,82; 41,16</t>
+          <t>-16,0; -6,69</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>113,34%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>-18,89%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 75,19</t>
+          <t>12,7; 37,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 79,31</t>
+          <t>-2,83; 20,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,55; 201,59</t>
+          <t>-17,97; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 91,59</t>
+          <t>1,39; 19,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 121,98</t>
+          <t>-4,39; 12,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,28; 135,5</t>
+          <t>-42,1; -19,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 70,28</t>
+          <t>9,61; 23,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 81,94</t>
+          <t>-0,29; 12,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,82; 146,58</t>
+          <t>-28,65; -12,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,87</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,55</t>
+          <t>-15,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,67</t>
+          <t>-16,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 12,72</t>
+          <t>1,43; 10,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,29</t>
+          <t>-1,52; 7,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,48; 41,53</t>
+          <t>-31,13; -6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 9,26</t>
+          <t>1,96; 10,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,38</t>
+          <t>-3,6; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 31,82</t>
+          <t>-20,25; -11,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,61</t>
+          <t>2,51; 8,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,19</t>
+          <t>-1,7; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 34,47</t>
+          <t>-29,53; -10,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>-32,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>-24,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>-29,48%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 37,53</t>
+          <t>2,81; 22,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 33,07</t>
+          <t>-2,99; 16,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 125,84</t>
+          <t>-63,14; -13,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 22,2</t>
+          <t>2,9; 16,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 27,42</t>
+          <t>-5,4; 7,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,48; 76,56</t>
+          <t>-30,13; -18,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 24,46</t>
+          <t>4,27; 15,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 23,83</t>
+          <t>-2,91; 8,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 89,39</t>
+          <t>-51,74; -18,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,26</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>-9,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>-7,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,72</t>
+          <t>-4,4; 6,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,09</t>
+          <t>-6,47; 4,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,44; 44,15</t>
+          <t>-13,75; -2,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,71</t>
+          <t>-0,8; 9,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,69</t>
+          <t>-8,43; 1,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,79; 23,73</t>
+          <t>-23,7; 13,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,13</t>
+          <t>-1,26; 6,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,0</t>
+          <t>-5,84; 1,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,25; 32,8</t>
+          <t>-16,47; 9,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>107,08%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>-14,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 19,98</t>
+          <t>-8,37; 14,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 26,55</t>
+          <t>-12,48; 9,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,78; 131,27</t>
+          <t>-26,51; -5,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 14,13</t>
+          <t>-1,34; 14,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 12,28</t>
+          <t>-12,76; 2,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 51,36</t>
+          <t>-36,59; 22,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 12,38</t>
+          <t>-2,15; 11,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 14,46</t>
+          <t>-10,26; 2,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 79,43</t>
+          <t>-28,75; 16,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,98</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,17</t>
+          <t>-20,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,68</t>
+          <t>-14,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 5,25</t>
+          <t>6,79; 16,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,14</t>
+          <t>4,73; 13,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,8; 40,94</t>
+          <t>-12,7; -3,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,3</t>
+          <t>0,76; 9,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -1,34</t>
+          <t>-4,16; 4,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 35,7</t>
+          <t>-28,26; -15,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,91</t>
+          <t>5,13; 11,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,32</t>
+          <t>0,83; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,0; 36,97</t>
+          <t>-19,8; -11,32</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>-17,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>-32,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>-26,62%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 14,0</t>
+          <t>13,6; 36,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 5,56</t>
+          <t>9,65; 30,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,02; 111,51</t>
+          <t>-26,17; -7,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,66</t>
+          <t>1,15; 14,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -2,7</t>
+          <t>-6,3; 7,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,18; 70,55</t>
+          <t>-45,24; -25,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 4,38</t>
+          <t>8,99; 20,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -0,57</t>
+          <t>1,45; 13,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>57,97; 83,98</t>
+          <t>-35,64; -21,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>37,61</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>-15,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,14</t>
+          <t>-12,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,15</t>
+          <t>5,07; 9,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,79</t>
+          <t>1,38; 6,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 42,17</t>
+          <t>-19,79; -6,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,73</t>
+          <t>3,14; 7,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,13</t>
+          <t>-2,34; 2,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,72; 22,09</t>
+          <t>-19,94; -6,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,64</t>
+          <t>4,62; 8,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,29</t>
+          <t>0,32; 3,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,51; 30,55</t>
+          <t>-17,11; -8,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>-23,03%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 25,09</t>
+          <t>10,08; 21,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,43; 26,39</t>
+          <t>2,89; 13,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,49; 117,3</t>
+          <t>-40,43; -12,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 9,85</t>
+          <t>4,75; 12,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 12,59</t>
+          <t>-3,62; 3,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,79; 46,02</t>
+          <t>-31,18; -10,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 12,91</t>
+          <t>8,08; 14,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 14,42</t>
+          <t>0,62; 6,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>52,29; 70,87</t>
+          <t>-30,42; -14,87</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>37,53</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>22,15</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>29,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 5,97</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 5,62</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>35,07; 39,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 3,49</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 3,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 25,51</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 3,93</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 3,82</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>28,04; 31,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>99,2%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>45,16%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>68,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 16,38</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 15,3</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>89,15; 109,05</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 7,4</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 6,92</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>39,4; 53,65</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 9,19</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 9,0</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>62,92; 74,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,94</t>
+          <t>6,71; 17,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,37</t>
+          <t>-0,95; 10,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 1,93</t>
+          <t>-10,07; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,53</t>
+          <t>0,89; 10,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,6</t>
+          <t>-2,7; 7,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -11,65</t>
+          <t>-28,43; -12,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,77</t>
+          <t>5,18; 12,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,86</t>
+          <t>-0,23; 7,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -6,69</t>
+          <t>-16,84; -6,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 37,09</t>
+          <t>12,95; 37,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 20,33</t>
+          <t>-1,89; 22,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 4,19</t>
+          <t>-19,75; 4,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 19,13</t>
+          <t>1,36; 17,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 12,65</t>
+          <t>-4,23; 12,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,1; -19,44</t>
+          <t>-44,52; -19,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 23,47</t>
+          <t>8,95; 23,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,85</t>
+          <t>-0,39; 13,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; -12,41</t>
+          <t>-29,49; -12,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 10,56</t>
+          <t>1,07; 10,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 7,71</t>
+          <t>-1,45; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -6,21</t>
+          <t>-31,31; -5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,2</t>
+          <t>1,7; 10,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,79</t>
+          <t>-4,05; 4,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,25; -11,84</t>
+          <t>-19,86; -11,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,7</t>
+          <t>2,55; 8,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,61</t>
+          <t>-1,8; 4,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,53; -10,65</t>
+          <t>-32,45; -10,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 22,87</t>
+          <t>2,31; 22,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 16,86</t>
+          <t>-2,89; 16,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,14; -13,02</t>
+          <t>-63,35; -11,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 16,09</t>
+          <t>2,49; 16,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 7,46</t>
+          <t>-6,01; 7,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -18,72</t>
+          <t>-29,62; -18,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,86</t>
+          <t>4,35; 15,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 8,3</t>
+          <t>-3,08; 8,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,74; -18,85</t>
+          <t>-54,7; -18,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 6,62</t>
+          <t>-5,2; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,62</t>
+          <t>-6,58; 4,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -2,55</t>
+          <t>-14,49; -2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,14</t>
+          <t>-0,88; 8,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,28</t>
+          <t>-8,95; 1,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 13,95</t>
+          <t>-23,51; 12,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,04</t>
+          <t>-1,45; 5,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,61</t>
+          <t>-5,65; 1,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 9,31</t>
+          <t>-15,98; 9,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 14,22</t>
+          <t>-9,91; 13,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 9,96</t>
+          <t>-12,73; 10,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,51; -5,47</t>
+          <t>-27,89; -5,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 14,86</t>
+          <t>-1,32; 14,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2,11</t>
+          <t>-13,63; 2,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 22,57</t>
+          <t>-36,33; 20,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 11,24</t>
+          <t>-2,45; 10,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 2,87</t>
+          <t>-9,67; 2,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 16,48</t>
+          <t>-28,1; 16,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 16,03</t>
+          <t>6,65; 15,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,51</t>
+          <t>4,41; 13,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,43</t>
+          <t>-12,98; -4,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,2</t>
+          <t>1,46; 9,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,58</t>
+          <t>-4,17; 4,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,26; -15,72</t>
+          <t>-30,11; -16,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,17</t>
+          <t>5,08; 11,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,49</t>
+          <t>1,29; 7,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -11,32</t>
+          <t>-19,45; -11,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,6; 36,27</t>
+          <t>13,5; 35,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,65; 30,98</t>
+          <t>8,97; 29,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -7,6</t>
+          <t>-27,3; -8,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 14,99</t>
+          <t>2,29; 15,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 7,36</t>
+          <t>-6,33; 6,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -25,88</t>
+          <t>-46,99; -26,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 20,92</t>
+          <t>8,97; 21,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,95</t>
+          <t>2,29; 14,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,64; -21,24</t>
+          <t>-34,57; -20,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,89</t>
+          <t>5,26; 10,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,46</t>
+          <t>1,55; 6,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -6,13</t>
+          <t>-17,65; -5,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,82</t>
+          <t>3,25; 7,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,34</t>
+          <t>-2,55; 2,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -6,5</t>
+          <t>-19,91; -6,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,06</t>
+          <t>4,83; 8,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,68</t>
+          <t>0,24; 3,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -8,35</t>
+          <t>-16,75; -7,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,08; 21,02</t>
+          <t>10,68; 21,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,8</t>
+          <t>3,11; 14,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,43; -12,86</t>
+          <t>-36,69; -12,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,4</t>
+          <t>5,0; 12,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,72</t>
+          <t>-3,92; 3,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -10,23</t>
+          <t>-31,03; -10,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,57</t>
+          <t>8,45; 14,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,67</t>
+          <t>0,41; 6,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -14,87</t>
+          <t>-29,91; -13,73</t>
         </is>
       </c>
     </row>
